--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -117,6 +117,102 @@
   </si>
   <si>
     <t>17704594</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>17704735</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>17704736</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>118498</t>
+  </si>
+  <si>
+    <t>17704737</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>17704738</t>
+  </si>
+  <si>
+    <t>17704739</t>
+  </si>
+  <si>
+    <t>6012</t>
+  </si>
+  <si>
+    <t>17704740</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>17704741</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>17704742</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>17704743</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>17704745</t>
+  </si>
+  <si>
+    <t>17704746</t>
+  </si>
+  <si>
+    <t>17704747</t>
+  </si>
+  <si>
+    <t>17704748</t>
+  </si>
+  <si>
+    <t>17704749</t>
+  </si>
+  <si>
+    <t>17704750</t>
+  </si>
+  <si>
+    <t>17704751</t>
+  </si>
+  <si>
+    <t>17704752</t>
+  </si>
+  <si>
+    <t>17704753</t>
+  </si>
+  <si>
+    <t>17704754</t>
+  </si>
+  <si>
+    <t>17704755</t>
+  </si>
+  <si>
+    <t>17704756</t>
+  </si>
+  <si>
+    <t>17704757</t>
   </si>
 </sst>
 </file>
@@ -161,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -442,6 +538,248 @@
         <v>5</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="106">
   <si>
     <t>TC</t>
   </si>
@@ -213,6 +213,123 @@
   </si>
   <si>
     <t>17704757</t>
+  </si>
+  <si>
+    <t>17704760</t>
+  </si>
+  <si>
+    <t>17704761</t>
+  </si>
+  <si>
+    <t>17704762</t>
+  </si>
+  <si>
+    <t>17704763</t>
+  </si>
+  <si>
+    <t>17704764</t>
+  </si>
+  <si>
+    <t>17704767</t>
+  </si>
+  <si>
+    <t>17704768</t>
+  </si>
+  <si>
+    <t>17704769</t>
+  </si>
+  <si>
+    <t>17704772</t>
+  </si>
+  <si>
+    <t>17704773</t>
+  </si>
+  <si>
+    <t>17704774</t>
+  </si>
+  <si>
+    <t>17704775</t>
+  </si>
+  <si>
+    <t>17704776</t>
+  </si>
+  <si>
+    <t>17704777</t>
+  </si>
+  <si>
+    <t>17704779</t>
+  </si>
+  <si>
+    <t>17704781</t>
+  </si>
+  <si>
+    <t>17704783</t>
+  </si>
+  <si>
+    <t>17704786</t>
+  </si>
+  <si>
+    <t>17704787</t>
+  </si>
+  <si>
+    <t>17704789</t>
+  </si>
+  <si>
+    <t>17704791</t>
+  </si>
+  <si>
+    <t>17704793</t>
+  </si>
+  <si>
+    <t>17704794</t>
+  </si>
+  <si>
+    <t>17704795</t>
+  </si>
+  <si>
+    <t>17704800</t>
+  </si>
+  <si>
+    <t>17704801</t>
+  </si>
+  <si>
+    <t>17704802</t>
+  </si>
+  <si>
+    <t>17704803</t>
+  </si>
+  <si>
+    <t>17704804</t>
+  </si>
+  <si>
+    <t>17704808</t>
+  </si>
+  <si>
+    <t>17704809</t>
+  </si>
+  <si>
+    <t>17704810</t>
+  </si>
+  <si>
+    <t>17704811</t>
+  </si>
+  <si>
+    <t>17704812</t>
+  </si>
+  <si>
+    <t>17704813</t>
+  </si>
+  <si>
+    <t>17704815</t>
+  </si>
+  <si>
+    <t>17704816</t>
+  </si>
+  <si>
+    <t>17704817</t>
+  </si>
+  <si>
+    <t>17704818</t>
   </si>
 </sst>
 </file>
@@ -257,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -780,6 +897,435 @@
         <v>5</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
   <si>
     <t>TC</t>
   </si>
@@ -330,6 +330,27 @@
   </si>
   <si>
     <t>17704818</t>
+  </si>
+  <si>
+    <t>118463</t>
+  </si>
+  <si>
+    <t>17705014</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>17705016</t>
+  </si>
+  <si>
+    <t>17705018</t>
+  </si>
+  <si>
+    <t>17705019</t>
+  </si>
+  <si>
+    <t>17705020</t>
   </si>
 </sst>
 </file>
@@ -374,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1326,6 +1347,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
   <si>
     <t>TC</t>
   </si>
@@ -351,6 +351,171 @@
   </si>
   <si>
     <t>17705020</t>
+  </si>
+  <si>
+    <t>17705034</t>
+  </si>
+  <si>
+    <t>17705035</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>17705036</t>
+  </si>
+  <si>
+    <t>118464</t>
+  </si>
+  <si>
+    <t>17705037</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>118465</t>
+  </si>
+  <si>
+    <t>17705038</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>118466</t>
+  </si>
+  <si>
+    <t>17705039</t>
+  </si>
+  <si>
+    <t>118468</t>
+  </si>
+  <si>
+    <t>17705040</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>118469</t>
+  </si>
+  <si>
+    <t>17705041</t>
+  </si>
+  <si>
+    <t>118470</t>
+  </si>
+  <si>
+    <t>17705042</t>
+  </si>
+  <si>
+    <t>6007</t>
+  </si>
+  <si>
+    <t>118471</t>
+  </si>
+  <si>
+    <t>17705043</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>17705205</t>
+  </si>
+  <si>
+    <t>17705206</t>
+  </si>
+  <si>
+    <t>17705208</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>17705210</t>
+  </si>
+  <si>
+    <t>17705211</t>
+  </si>
+  <si>
+    <t>17705212</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>17705214</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>17705215</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>17705224</t>
+  </si>
+  <si>
+    <t>17705225</t>
+  </si>
+  <si>
+    <t>17705226</t>
+  </si>
+  <si>
+    <t>17705229</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>17705230</t>
+  </si>
+  <si>
+    <t>17705231</t>
+  </si>
+  <si>
+    <t>17705232</t>
+  </si>
+  <si>
+    <t>17705233</t>
+  </si>
+  <si>
+    <t>17705234</t>
+  </si>
+  <si>
+    <t>17705235</t>
+  </si>
+  <si>
+    <t>17705238</t>
+  </si>
+  <si>
+    <t>17704245</t>
+  </si>
+  <si>
+    <t>17704413</t>
+  </si>
+  <si>
+    <t>17705259</t>
+  </si>
+  <si>
+    <t>17705260</t>
+  </si>
+  <si>
+    <t>17705261</t>
+  </si>
+  <si>
+    <t>17705262</t>
+  </si>
+  <si>
+    <t>17705263</t>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
 </sst>
 </file>
@@ -395,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1402,6 +1567,402 @@
         <v>42</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="183">
   <si>
     <t>TC</t>
   </si>
@@ -516,6 +516,51 @@
   </si>
   <si>
     <t>1011</t>
+  </si>
+  <si>
+    <t>17706585</t>
+  </si>
+  <si>
+    <t>17706586</t>
+  </si>
+  <si>
+    <t>17706587</t>
+  </si>
+  <si>
+    <t>17706588</t>
+  </si>
+  <si>
+    <t>17706589</t>
+  </si>
+  <si>
+    <t>17706590</t>
+  </si>
+  <si>
+    <t>17706591</t>
+  </si>
+  <si>
+    <t>17706592</t>
+  </si>
+  <si>
+    <t>17707507</t>
+  </si>
+  <si>
+    <t>17707512</t>
+  </si>
+  <si>
+    <t>17707515</t>
+  </si>
+  <si>
+    <t>17707516</t>
+  </si>
+  <si>
+    <t>17707517</t>
+  </si>
+  <si>
+    <t>17707519</t>
+  </si>
+  <si>
+    <t>17707520</t>
   </si>
 </sst>
 </file>
@@ -560,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1963,6 +2008,171 @@
         <v>167</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>106</v>
+      </c>
+      <c r="B137" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="300">
   <si>
     <t>TC</t>
   </si>
@@ -561,6 +561,357 @@
   </si>
   <si>
     <t>17707520</t>
+  </si>
+  <si>
+    <t>17713277</t>
+  </si>
+  <si>
+    <t>17713279</t>
+  </si>
+  <si>
+    <t>17866568</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>17866569</t>
+  </si>
+  <si>
+    <t>6063</t>
+  </si>
+  <si>
+    <t>17866570</t>
+  </si>
+  <si>
+    <t>17866571</t>
+  </si>
+  <si>
+    <t>17866572</t>
+  </si>
+  <si>
+    <t>17866573</t>
+  </si>
+  <si>
+    <t>17866574</t>
+  </si>
+  <si>
+    <t>17866575</t>
+  </si>
+  <si>
+    <t>17866579</t>
+  </si>
+  <si>
+    <t>17866580</t>
+  </si>
+  <si>
+    <t>17866581</t>
+  </si>
+  <si>
+    <t>17866582</t>
+  </si>
+  <si>
+    <t>17866584</t>
+  </si>
+  <si>
+    <t>17866585</t>
+  </si>
+  <si>
+    <t>17866586</t>
+  </si>
+  <si>
+    <t>17866587</t>
+  </si>
+  <si>
+    <t>17866588</t>
+  </si>
+  <si>
+    <t>17866589</t>
+  </si>
+  <si>
+    <t>17866590</t>
+  </si>
+  <si>
+    <t>17866591</t>
+  </si>
+  <si>
+    <t>17866592</t>
+  </si>
+  <si>
+    <t>17866593</t>
+  </si>
+  <si>
+    <t>17866594</t>
+  </si>
+  <si>
+    <t>17866595</t>
+  </si>
+  <si>
+    <t>17866596</t>
+  </si>
+  <si>
+    <t>17866597</t>
+  </si>
+  <si>
+    <t>17866598</t>
+  </si>
+  <si>
+    <t>17866599</t>
+  </si>
+  <si>
+    <t>17866600</t>
+  </si>
+  <si>
+    <t>17866601</t>
+  </si>
+  <si>
+    <t>17866602</t>
+  </si>
+  <si>
+    <t>17866603</t>
+  </si>
+  <si>
+    <t>17866604</t>
+  </si>
+  <si>
+    <t>17866605</t>
+  </si>
+  <si>
+    <t>17866606</t>
+  </si>
+  <si>
+    <t>17866607</t>
+  </si>
+  <si>
+    <t>17866608</t>
+  </si>
+  <si>
+    <t>17866609</t>
+  </si>
+  <si>
+    <t>17866610</t>
+  </si>
+  <si>
+    <t>17866611</t>
+  </si>
+  <si>
+    <t>17866612</t>
+  </si>
+  <si>
+    <t>17866613</t>
+  </si>
+  <si>
+    <t>17866614</t>
+  </si>
+  <si>
+    <t>17866615</t>
+  </si>
+  <si>
+    <t>17866616</t>
+  </si>
+  <si>
+    <t>17866617</t>
+  </si>
+  <si>
+    <t>17866618</t>
+  </si>
+  <si>
+    <t>17866619</t>
+  </si>
+  <si>
+    <t>17866620</t>
+  </si>
+  <si>
+    <t>17866621</t>
+  </si>
+  <si>
+    <t>17866622</t>
+  </si>
+  <si>
+    <t>17866623</t>
+  </si>
+  <si>
+    <t>17866624</t>
+  </si>
+  <si>
+    <t>17866625</t>
+  </si>
+  <si>
+    <t>17866626</t>
+  </si>
+  <si>
+    <t>17866627</t>
+  </si>
+  <si>
+    <t>17866628</t>
+  </si>
+  <si>
+    <t>17866629</t>
+  </si>
+  <si>
+    <t>17866630</t>
+  </si>
+  <si>
+    <t>17866631</t>
+  </si>
+  <si>
+    <t>17866632</t>
+  </si>
+  <si>
+    <t>17866633</t>
+  </si>
+  <si>
+    <t>17866634</t>
+  </si>
+  <si>
+    <t>17866635</t>
+  </si>
+  <si>
+    <t>17866636</t>
+  </si>
+  <si>
+    <t>17866637</t>
+  </si>
+  <si>
+    <t>17866638</t>
+  </si>
+  <si>
+    <t>17866639</t>
+  </si>
+  <si>
+    <t>17866640</t>
+  </si>
+  <si>
+    <t>17866641</t>
+  </si>
+  <si>
+    <t>17866642</t>
+  </si>
+  <si>
+    <t>17866643</t>
+  </si>
+  <si>
+    <t>17866644</t>
+  </si>
+  <si>
+    <t>17866645</t>
+  </si>
+  <si>
+    <t>17866646</t>
+  </si>
+  <si>
+    <t>17866647</t>
+  </si>
+  <si>
+    <t>17866648</t>
+  </si>
+  <si>
+    <t>17866649</t>
+  </si>
+  <si>
+    <t>17866650</t>
+  </si>
+  <si>
+    <t>17866651</t>
+  </si>
+  <si>
+    <t>17866652</t>
+  </si>
+  <si>
+    <t>17866653</t>
+  </si>
+  <si>
+    <t>17866654</t>
+  </si>
+  <si>
+    <t>17866655</t>
+  </si>
+  <si>
+    <t>17866656</t>
+  </si>
+  <si>
+    <t>17866657</t>
+  </si>
+  <si>
+    <t>17866658</t>
+  </si>
+  <si>
+    <t>17866659</t>
+  </si>
+  <si>
+    <t>17866660</t>
+  </si>
+  <si>
+    <t>17866661</t>
+  </si>
+  <si>
+    <t>17866662</t>
+  </si>
+  <si>
+    <t>17866663</t>
+  </si>
+  <si>
+    <t>17866664</t>
+  </si>
+  <si>
+    <t>17866665</t>
+  </si>
+  <si>
+    <t>17866666</t>
+  </si>
+  <si>
+    <t>17866667</t>
+  </si>
+  <si>
+    <t>17866668</t>
+  </si>
+  <si>
+    <t>17866669</t>
+  </si>
+  <si>
+    <t>17866670</t>
+  </si>
+  <si>
+    <t>17866671</t>
+  </si>
+  <si>
+    <t>17866672</t>
+  </si>
+  <si>
+    <t>17866673</t>
+  </si>
+  <si>
+    <t>17866674</t>
+  </si>
+  <si>
+    <t>17866675</t>
+  </si>
+  <si>
+    <t>17866676</t>
+  </si>
+  <si>
+    <t>17866677</t>
+  </si>
+  <si>
+    <t>17866678</t>
+  </si>
+  <si>
+    <t>17866679</t>
+  </si>
+  <si>
+    <t>17866680</t>
+  </si>
+  <si>
+    <t>17866681</t>
+  </si>
+  <si>
+    <t>17866682</t>
+  </si>
+  <si>
+    <t>17866683</t>
+  </si>
+  <si>
+    <t>17866684</t>
   </si>
 </sst>
 </file>
@@ -605,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2173,6 +2524,1271 @@
         <v>167</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" t="s">
+        <v>185</v>
+      </c>
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>35</v>
+      </c>
+      <c r="B148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>35</v>
+      </c>
+      <c r="B151" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" t="s">
+        <v>194</v>
+      </c>
+      <c r="C152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" t="s">
+        <v>195</v>
+      </c>
+      <c r="C153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>196</v>
+      </c>
+      <c r="C154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" t="s">
+        <v>199</v>
+      </c>
+      <c r="C157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" t="s">
+        <v>205</v>
+      </c>
+      <c r="C163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>206</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167" t="s">
+        <v>209</v>
+      </c>
+      <c r="C167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>211</v>
+      </c>
+      <c r="C169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" t="s">
+        <v>212</v>
+      </c>
+      <c r="C170" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>213</v>
+      </c>
+      <c r="C171" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>215</v>
+      </c>
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174" t="s">
+        <v>216</v>
+      </c>
+      <c r="C174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>217</v>
+      </c>
+      <c r="C175" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" t="s">
+        <v>219</v>
+      </c>
+      <c r="C177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>221</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>222</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181" t="s">
+        <v>223</v>
+      </c>
+      <c r="C181" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>224</v>
+      </c>
+      <c r="C182" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" t="s">
+        <v>225</v>
+      </c>
+      <c r="C183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>226</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" t="s">
+        <v>227</v>
+      </c>
+      <c r="C185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>228</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>229</v>
+      </c>
+      <c r="C187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" t="s">
+        <v>230</v>
+      </c>
+      <c r="C188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>231</v>
+      </c>
+      <c r="C189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" t="s">
+        <v>232</v>
+      </c>
+      <c r="C190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>233</v>
+      </c>
+      <c r="C191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>234</v>
+      </c>
+      <c r="C192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>236</v>
+      </c>
+      <c r="C194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" t="s">
+        <v>237</v>
+      </c>
+      <c r="C195" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" t="s">
+        <v>238</v>
+      </c>
+      <c r="C196" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>35</v>
+      </c>
+      <c r="B197" t="s">
+        <v>239</v>
+      </c>
+      <c r="C197" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>240</v>
+      </c>
+      <c r="C198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" t="s">
+        <v>241</v>
+      </c>
+      <c r="C199" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" t="s">
+        <v>242</v>
+      </c>
+      <c r="C200" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>35</v>
+      </c>
+      <c r="B201" t="s">
+        <v>243</v>
+      </c>
+      <c r="C201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>244</v>
+      </c>
+      <c r="C202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>245</v>
+      </c>
+      <c r="C203" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>246</v>
+      </c>
+      <c r="C204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206" t="s">
+        <v>248</v>
+      </c>
+      <c r="C206" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>35</v>
+      </c>
+      <c r="B207" t="s">
+        <v>249</v>
+      </c>
+      <c r="C207" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>250</v>
+      </c>
+      <c r="C208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>251</v>
+      </c>
+      <c r="C209" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210" t="s">
+        <v>252</v>
+      </c>
+      <c r="C210" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>253</v>
+      </c>
+      <c r="C211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>254</v>
+      </c>
+      <c r="C212" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" t="s">
+        <v>255</v>
+      </c>
+      <c r="C213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>256</v>
+      </c>
+      <c r="C214" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" t="s">
+        <v>257</v>
+      </c>
+      <c r="C215" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
+        <v>258</v>
+      </c>
+      <c r="C216" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>259</v>
+      </c>
+      <c r="C217" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" t="s">
+        <v>260</v>
+      </c>
+      <c r="C218" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>261</v>
+      </c>
+      <c r="C219" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>35</v>
+      </c>
+      <c r="B220" t="s">
+        <v>262</v>
+      </c>
+      <c r="C220" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" t="s">
+        <v>263</v>
+      </c>
+      <c r="C221" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" t="s">
+        <v>264</v>
+      </c>
+      <c r="C222" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
+        <v>265</v>
+      </c>
+      <c r="C223" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>35</v>
+      </c>
+      <c r="B224" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>267</v>
+      </c>
+      <c r="C225" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" t="s">
+        <v>268</v>
+      </c>
+      <c r="C226" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
+        <v>269</v>
+      </c>
+      <c r="C227" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" t="s">
+        <v>270</v>
+      </c>
+      <c r="C228" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" t="s">
+        <v>271</v>
+      </c>
+      <c r="C229" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" t="s">
+        <v>272</v>
+      </c>
+      <c r="C230" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231" t="s">
+        <v>273</v>
+      </c>
+      <c r="C231" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>35</v>
+      </c>
+      <c r="B232" t="s">
+        <v>274</v>
+      </c>
+      <c r="C232" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" t="s">
+        <v>275</v>
+      </c>
+      <c r="C233" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>40</v>
+      </c>
+      <c r="B234" t="s">
+        <v>276</v>
+      </c>
+      <c r="C234" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" t="s">
+        <v>277</v>
+      </c>
+      <c r="C235" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>35</v>
+      </c>
+      <c r="B236" t="s">
+        <v>278</v>
+      </c>
+      <c r="C236" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>279</v>
+      </c>
+      <c r="C237" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" t="s">
+        <v>280</v>
+      </c>
+      <c r="C238" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>281</v>
+      </c>
+      <c r="C239" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>35</v>
+      </c>
+      <c r="B240" t="s">
+        <v>282</v>
+      </c>
+      <c r="C240" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" t="s">
+        <v>283</v>
+      </c>
+      <c r="C241" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" t="s">
+        <v>284</v>
+      </c>
+      <c r="C242" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>285</v>
+      </c>
+      <c r="C243" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>35</v>
+      </c>
+      <c r="B244" t="s">
+        <v>286</v>
+      </c>
+      <c r="C244" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" t="s">
+        <v>287</v>
+      </c>
+      <c r="C245" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>40</v>
+      </c>
+      <c r="B246" t="s">
+        <v>288</v>
+      </c>
+      <c r="C246" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>289</v>
+      </c>
+      <c r="C247" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>35</v>
+      </c>
+      <c r="B248" t="s">
+        <v>290</v>
+      </c>
+      <c r="C248" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" t="s">
+        <v>291</v>
+      </c>
+      <c r="C249" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" t="s">
+        <v>292</v>
+      </c>
+      <c r="C250" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>35</v>
+      </c>
+      <c r="B251" t="s">
+        <v>293</v>
+      </c>
+      <c r="C251" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" t="s">
+        <v>294</v>
+      </c>
+      <c r="C252" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>40</v>
+      </c>
+      <c r="B253" t="s">
+        <v>295</v>
+      </c>
+      <c r="C253" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>296</v>
+      </c>
+      <c r="C254" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>35</v>
+      </c>
+      <c r="B255" t="s">
+        <v>297</v>
+      </c>
+      <c r="C255" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>298</v>
+      </c>
+      <c r="C256" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" t="s">
+        <v>299</v>
+      </c>
+      <c r="C257" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="314">
   <si>
     <t>TC</t>
   </si>
@@ -912,6 +912,48 @@
   </si>
   <si>
     <t>17866684</t>
+  </si>
+  <si>
+    <t>17866685</t>
+  </si>
+  <si>
+    <t>17866686</t>
+  </si>
+  <si>
+    <t>17866687</t>
+  </si>
+  <si>
+    <t>17866688</t>
+  </si>
+  <si>
+    <t>17866689</t>
+  </si>
+  <si>
+    <t>17866690</t>
+  </si>
+  <si>
+    <t>17866691</t>
+  </si>
+  <si>
+    <t>17866692</t>
+  </si>
+  <si>
+    <t>17866693</t>
+  </si>
+  <si>
+    <t>17866694</t>
+  </si>
+  <si>
+    <t>17866695</t>
+  </si>
+  <si>
+    <t>17866696</t>
+  </si>
+  <si>
+    <t>17866697</t>
+  </si>
+  <si>
+    <t>17866698</t>
   </si>
 </sst>
 </file>
@@ -956,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3789,6 +3831,160 @@
         <v>188</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>35</v>
+      </c>
+      <c r="B258" t="s">
+        <v>300</v>
+      </c>
+      <c r="C258" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" t="s">
+        <v>301</v>
+      </c>
+      <c r="C259" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" t="s">
+        <v>302</v>
+      </c>
+      <c r="C260" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
+        <v>303</v>
+      </c>
+      <c r="C261" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>35</v>
+      </c>
+      <c r="B262" t="s">
+        <v>304</v>
+      </c>
+      <c r="C262" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
+        <v>305</v>
+      </c>
+      <c r="C263" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>40</v>
+      </c>
+      <c r="B264" t="s">
+        <v>306</v>
+      </c>
+      <c r="C264" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>35</v>
+      </c>
+      <c r="B265" t="s">
+        <v>307</v>
+      </c>
+      <c r="C265" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" t="s">
+        <v>308</v>
+      </c>
+      <c r="C266" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>40</v>
+      </c>
+      <c r="B267" t="s">
+        <v>309</v>
+      </c>
+      <c r="C267" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>310</v>
+      </c>
+      <c r="C268" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>35</v>
+      </c>
+      <c r="B269" t="s">
+        <v>311</v>
+      </c>
+      <c r="C269" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270" t="s">
+        <v>312</v>
+      </c>
+      <c r="C270" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>40</v>
+      </c>
+      <c r="B271" t="s">
+        <v>313</v>
+      </c>
+      <c r="C271" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="319">
   <si>
     <t>TC</t>
   </si>
@@ -954,6 +954,21 @@
   </si>
   <si>
     <t>17866698</t>
+  </si>
+  <si>
+    <t>17866724</t>
+  </si>
+  <si>
+    <t>17866725</t>
+  </si>
+  <si>
+    <t>17866726</t>
+  </si>
+  <si>
+    <t>17866727</t>
+  </si>
+  <si>
+    <t>17866729</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3985,6 +4000,61 @@
         <v>188</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272" t="s">
+        <v>314</v>
+      </c>
+      <c r="C272" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" t="s">
+        <v>315</v>
+      </c>
+      <c r="C273" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>35</v>
+      </c>
+      <c r="B274" t="s">
+        <v>316</v>
+      </c>
+      <c r="C274" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>35</v>
+      </c>
+      <c r="B275" t="s">
+        <v>317</v>
+      </c>
+      <c r="C275" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" t="s">
+        <v>318</v>
+      </c>
+      <c r="C276" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="348">
   <si>
     <t>TC</t>
   </si>
@@ -969,6 +969,93 @@
   </si>
   <si>
     <t>17866729</t>
+  </si>
+  <si>
+    <t>17866752</t>
+  </si>
+  <si>
+    <t>17866753</t>
+  </si>
+  <si>
+    <t>17866754</t>
+  </si>
+  <si>
+    <t>17866755</t>
+  </si>
+  <si>
+    <t>17866756</t>
+  </si>
+  <si>
+    <t>17866757</t>
+  </si>
+  <si>
+    <t>17866759</t>
+  </si>
+  <si>
+    <t>17866761</t>
+  </si>
+  <si>
+    <t>17866762</t>
+  </si>
+  <si>
+    <t>17866763</t>
+  </si>
+  <si>
+    <t>17866764</t>
+  </si>
+  <si>
+    <t>17866766</t>
+  </si>
+  <si>
+    <t>17866767</t>
+  </si>
+  <si>
+    <t>17866768</t>
+  </si>
+  <si>
+    <t>17866770</t>
+  </si>
+  <si>
+    <t>17868014</t>
+  </si>
+  <si>
+    <t>CD Karobar Fin</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17868016</t>
+  </si>
+  <si>
+    <t>17868020</t>
+  </si>
+  <si>
+    <t>17868021</t>
+  </si>
+  <si>
+    <t>17868022</t>
+  </si>
+  <si>
+    <t>17868023</t>
+  </si>
+  <si>
+    <t>17868024</t>
+  </si>
+  <si>
+    <t>17868025</t>
+  </si>
+  <si>
+    <t>17868029</t>
+  </si>
+  <si>
+    <t>CD F.E.25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17868030</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4055,6 +4142,341 @@
         <v>139</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" t="s">
+        <v>319</v>
+      </c>
+      <c r="C277" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>40</v>
+      </c>
+      <c r="B278" t="s">
+        <v>320</v>
+      </c>
+      <c r="C278" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>321</v>
+      </c>
+      <c r="C279" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
+        <v>322</v>
+      </c>
+      <c r="C280" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" t="s">
+        <v>323</v>
+      </c>
+      <c r="C281" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" t="s">
+        <v>324</v>
+      </c>
+      <c r="C282" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" t="s">
+        <v>325</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>326</v>
+      </c>
+      <c r="C284" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>40</v>
+      </c>
+      <c r="B285" t="s">
+        <v>327</v>
+      </c>
+      <c r="C285" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>328</v>
+      </c>
+      <c r="C286" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>329</v>
+      </c>
+      <c r="C287" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" t="s">
+        <v>330</v>
+      </c>
+      <c r="C288" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
+        <v>331</v>
+      </c>
+      <c r="C289" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" t="s">
+        <v>332</v>
+      </c>
+      <c r="C290" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" t="s">
+        <v>333</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>106</v>
+      </c>
+      <c r="B292" t="s">
+        <v>334</v>
+      </c>
+      <c r="C292" t="s">
+        <v>139</v>
+      </c>
+      <c r="D292" t="s">
+        <v>335</v>
+      </c>
+      <c r="E292" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>106</v>
+      </c>
+      <c r="B293" t="s">
+        <v>337</v>
+      </c>
+      <c r="C293" t="s">
+        <v>122</v>
+      </c>
+      <c r="D293" t="s">
+        <v>335</v>
+      </c>
+      <c r="E293" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>106</v>
+      </c>
+      <c r="B294" t="s">
+        <v>338</v>
+      </c>
+      <c r="C294" t="s">
+        <v>139</v>
+      </c>
+      <c r="D294" t="s">
+        <v>335</v>
+      </c>
+      <c r="E294" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>106</v>
+      </c>
+      <c r="B295" t="s">
+        <v>339</v>
+      </c>
+      <c r="C295" t="s">
+        <v>145</v>
+      </c>
+      <c r="D295" t="s">
+        <v>335</v>
+      </c>
+      <c r="E295" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>106</v>
+      </c>
+      <c r="B296" t="s">
+        <v>340</v>
+      </c>
+      <c r="C296" t="s">
+        <v>122</v>
+      </c>
+      <c r="D296" t="s">
+        <v>335</v>
+      </c>
+      <c r="E296" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>106</v>
+      </c>
+      <c r="B297" t="s">
+        <v>341</v>
+      </c>
+      <c r="C297" t="s">
+        <v>139</v>
+      </c>
+      <c r="D297" t="s">
+        <v>335</v>
+      </c>
+      <c r="E297" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>106</v>
+      </c>
+      <c r="B298" t="s">
+        <v>342</v>
+      </c>
+      <c r="C298" t="s">
+        <v>145</v>
+      </c>
+      <c r="D298" t="s">
+        <v>335</v>
+      </c>
+      <c r="E298" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299" t="s">
+        <v>343</v>
+      </c>
+      <c r="C299" t="s">
+        <v>122</v>
+      </c>
+      <c r="D299" t="s">
+        <v>335</v>
+      </c>
+      <c r="E299" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>106</v>
+      </c>
+      <c r="B300" t="s">
+        <v>344</v>
+      </c>
+      <c r="C300" t="s">
+        <v>139</v>
+      </c>
+      <c r="D300" t="s">
+        <v>345</v>
+      </c>
+      <c r="E300" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>106</v>
+      </c>
+      <c r="B301" t="s">
+        <v>347</v>
+      </c>
+      <c r="C301" t="s">
+        <v>145</v>
+      </c>
+      <c r="D301" t="s">
+        <v>345</v>
+      </c>
+      <c r="E301" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data/CUSTOMERS.xlsx
+++ b/Data/CUSTOMERS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="530">
   <si>
     <t>TC</t>
   </si>
@@ -1056,6 +1056,552 @@
   </si>
   <si>
     <t>17868030</t>
+  </si>
+  <si>
+    <t>17868037</t>
+  </si>
+  <si>
+    <t>17868038</t>
+  </si>
+  <si>
+    <t>17868039</t>
+  </si>
+  <si>
+    <t>17898786</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17898787</t>
+  </si>
+  <si>
+    <t>17898789</t>
+  </si>
+  <si>
+    <t>17898790</t>
+  </si>
+  <si>
+    <t>17898791</t>
+  </si>
+  <si>
+    <t>17898792</t>
+  </si>
+  <si>
+    <t>17898793</t>
+  </si>
+  <si>
+    <t>17898794</t>
+  </si>
+  <si>
+    <t>17898795</t>
+  </si>
+  <si>
+    <t>17898797</t>
+  </si>
+  <si>
+    <t>SpFgCyAcCA</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17898798</t>
+  </si>
+  <si>
+    <t>17898799</t>
+  </si>
+  <si>
+    <t>17898800</t>
+  </si>
+  <si>
+    <t>17898801</t>
+  </si>
+  <si>
+    <t>17898802</t>
+  </si>
+  <si>
+    <t>6025</t>
+  </si>
+  <si>
+    <t>17898803</t>
+  </si>
+  <si>
+    <t>17898804</t>
+  </si>
+  <si>
+    <t>17898805</t>
+  </si>
+  <si>
+    <t>17898806</t>
+  </si>
+  <si>
+    <t>17898811</t>
+  </si>
+  <si>
+    <t>17898812</t>
+  </si>
+  <si>
+    <t>17898813</t>
+  </si>
+  <si>
+    <t>17898814</t>
+  </si>
+  <si>
+    <t>17898815</t>
+  </si>
+  <si>
+    <t>17898816</t>
+  </si>
+  <si>
+    <t>17898817</t>
+  </si>
+  <si>
+    <t>17898818</t>
+  </si>
+  <si>
+    <t>17898819</t>
+  </si>
+  <si>
+    <t>17898820</t>
+  </si>
+  <si>
+    <t>17898843</t>
+  </si>
+  <si>
+    <t>17898844</t>
+  </si>
+  <si>
+    <t>17898845</t>
+  </si>
+  <si>
+    <t>17898846</t>
+  </si>
+  <si>
+    <t>17898847</t>
+  </si>
+  <si>
+    <t>17898848</t>
+  </si>
+  <si>
+    <t>17898850</t>
+  </si>
+  <si>
+    <t>17898851</t>
+  </si>
+  <si>
+    <t>17898852</t>
+  </si>
+  <si>
+    <t>17898853</t>
+  </si>
+  <si>
+    <t>17898854</t>
+  </si>
+  <si>
+    <t>17898855</t>
+  </si>
+  <si>
+    <t>17898856</t>
+  </si>
+  <si>
+    <t>17898857</t>
+  </si>
+  <si>
+    <t>17898858</t>
+  </si>
+  <si>
+    <t>17898859</t>
+  </si>
+  <si>
+    <t>17898860</t>
+  </si>
+  <si>
+    <t>17898861</t>
+  </si>
+  <si>
+    <t>17898862</t>
+  </si>
+  <si>
+    <t>17898863</t>
+  </si>
+  <si>
+    <t>17898864</t>
+  </si>
+  <si>
+    <t>17898865</t>
+  </si>
+  <si>
+    <t>17898866</t>
+  </si>
+  <si>
+    <t>17898867</t>
+  </si>
+  <si>
+    <t>17898868</t>
+  </si>
+  <si>
+    <t>17898870</t>
+  </si>
+  <si>
+    <t>17898872</t>
+  </si>
+  <si>
+    <t>17898874</t>
+  </si>
+  <si>
+    <t>17898875</t>
+  </si>
+  <si>
+    <t>17898876</t>
+  </si>
+  <si>
+    <t>17898877</t>
+  </si>
+  <si>
+    <t>17898878</t>
+  </si>
+  <si>
+    <t>17898879</t>
+  </si>
+  <si>
+    <t>17898881</t>
+  </si>
+  <si>
+    <t>17898882</t>
+  </si>
+  <si>
+    <t>17898885</t>
+  </si>
+  <si>
+    <t>17898886</t>
+  </si>
+  <si>
+    <t>17898887</t>
+  </si>
+  <si>
+    <t>17898888</t>
+  </si>
+  <si>
+    <t>17898890</t>
+  </si>
+  <si>
+    <t>17898891</t>
+  </si>
+  <si>
+    <t>17898893</t>
+  </si>
+  <si>
+    <t>17898894</t>
+  </si>
+  <si>
+    <t>17898896</t>
+  </si>
+  <si>
+    <t>17898898</t>
+  </si>
+  <si>
+    <t>17898900</t>
+  </si>
+  <si>
+    <t>17898901</t>
+  </si>
+  <si>
+    <t>17898902</t>
+  </si>
+  <si>
+    <t>17898903</t>
+  </si>
+  <si>
+    <t>17898904</t>
+  </si>
+  <si>
+    <t>17898906</t>
+  </si>
+  <si>
+    <t>17898908</t>
+  </si>
+  <si>
+    <t>17898909</t>
+  </si>
+  <si>
+    <t>17898910</t>
+  </si>
+  <si>
+    <t>17898936</t>
+  </si>
+  <si>
+    <t>CD BBA</t>
+  </si>
+  <si>
+    <t>17898937</t>
+  </si>
+  <si>
+    <t>17898938</t>
+  </si>
+  <si>
+    <t>17898939</t>
+  </si>
+  <si>
+    <t>17898940</t>
+  </si>
+  <si>
+    <t>17898941</t>
+  </si>
+  <si>
+    <t>17898942</t>
+  </si>
+  <si>
+    <t>17898943</t>
+  </si>
+  <si>
+    <t>17898944</t>
+  </si>
+  <si>
+    <t>17898948</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>17898951</t>
+  </si>
+  <si>
+    <t>17898952</t>
+  </si>
+  <si>
+    <t>17898953</t>
+  </si>
+  <si>
+    <t>17898954</t>
+  </si>
+  <si>
+    <t>17898955</t>
+  </si>
+  <si>
+    <t>17898956</t>
+  </si>
+  <si>
+    <t>17898967</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17898968</t>
+  </si>
+  <si>
+    <t>17898969</t>
+  </si>
+  <si>
+    <t>17898970</t>
+  </si>
+  <si>
+    <t>17898971</t>
+  </si>
+  <si>
+    <t>17898973</t>
+  </si>
+  <si>
+    <t>17898975</t>
+  </si>
+  <si>
+    <t>17898992</t>
+  </si>
+  <si>
+    <t>17898994</t>
+  </si>
+  <si>
+    <t>17898995</t>
+  </si>
+  <si>
+    <t>17898996</t>
+  </si>
+  <si>
+    <t>17898997</t>
+  </si>
+  <si>
+    <t>17898999</t>
+  </si>
+  <si>
+    <t>17899000</t>
+  </si>
+  <si>
+    <t>17899005</t>
+  </si>
+  <si>
+    <t>FreeLancerCurAc</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17899006</t>
+  </si>
+  <si>
+    <t>17899007</t>
+  </si>
+  <si>
+    <t>17899008</t>
+  </si>
+  <si>
+    <t>17899009</t>
+  </si>
+  <si>
+    <t>17899010</t>
+  </si>
+  <si>
+    <t>17899013</t>
+  </si>
+  <si>
+    <t>CA AKK</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17899014</t>
+  </si>
+  <si>
+    <t>17899015</t>
+  </si>
+  <si>
+    <t>17899016</t>
+  </si>
+  <si>
+    <t>17899017</t>
+  </si>
+  <si>
+    <t>17899018</t>
+  </si>
+  <si>
+    <t>17899019</t>
+  </si>
+  <si>
+    <t>17899020</t>
+  </si>
+  <si>
+    <t>17899025</t>
+  </si>
+  <si>
+    <t>17899026</t>
+  </si>
+  <si>
+    <t>17899027</t>
+  </si>
+  <si>
+    <t>17899028</t>
+  </si>
+  <si>
+    <t>17899029</t>
+  </si>
+  <si>
+    <t>17899031</t>
+  </si>
+  <si>
+    <t>17899032</t>
+  </si>
+  <si>
+    <t>17899033</t>
+  </si>
+  <si>
+    <t>17899035</t>
+  </si>
+  <si>
+    <t>17899036</t>
+  </si>
+  <si>
+    <t>17899037</t>
+  </si>
+  <si>
+    <t>17899038</t>
+  </si>
+  <si>
+    <t>17899041</t>
+  </si>
+  <si>
+    <t>17899043</t>
+  </si>
+  <si>
+    <t>17899044</t>
+  </si>
+  <si>
+    <t>17899045</t>
+  </si>
+  <si>
+    <t>17899046</t>
+  </si>
+  <si>
+    <t>17899047</t>
+  </si>
+  <si>
+    <t>17899049</t>
+  </si>
+  <si>
+    <t>17899050</t>
+  </si>
+  <si>
+    <t>17899053</t>
+  </si>
+  <si>
+    <t>17899054</t>
+  </si>
+  <si>
+    <t>17899055</t>
+  </si>
+  <si>
+    <t>17899056</t>
+  </si>
+  <si>
+    <t>17899057</t>
+  </si>
+  <si>
+    <t>17899058</t>
+  </si>
+  <si>
+    <t>17899059</t>
+  </si>
+  <si>
+    <t>17899060</t>
+  </si>
+  <si>
+    <t>17899061</t>
+  </si>
+  <si>
+    <t>17899062</t>
+  </si>
+  <si>
+    <t>17899064</t>
+  </si>
+  <si>
+    <t>17899065</t>
+  </si>
+  <si>
+    <t>17899067</t>
+  </si>
+  <si>
+    <t>17899068</t>
+  </si>
+  <si>
+    <t>17899069</t>
+  </si>
+  <si>
+    <t>17899070</t>
+  </si>
+  <si>
+    <t>17899071</t>
+  </si>
+  <si>
+    <t>17899072</t>
+  </si>
+  <si>
+    <t>17899073</t>
+  </si>
+  <si>
+    <t>17899074</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4477,6 +5023,2878 @@
         <v>346</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>106</v>
+      </c>
+      <c r="B302" t="s">
+        <v>348</v>
+      </c>
+      <c r="C302" t="s">
+        <v>139</v>
+      </c>
+      <c r="D302" t="s">
+        <v>335</v>
+      </c>
+      <c r="E302" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>106</v>
+      </c>
+      <c r="B303" t="s">
+        <v>349</v>
+      </c>
+      <c r="C303" t="s">
+        <v>145</v>
+      </c>
+      <c r="D303" t="s">
+        <v>335</v>
+      </c>
+      <c r="E303" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>106</v>
+      </c>
+      <c r="B304" t="s">
+        <v>350</v>
+      </c>
+      <c r="C304" t="s">
+        <v>122</v>
+      </c>
+      <c r="D304" t="s">
+        <v>335</v>
+      </c>
+      <c r="E304" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>152</v>
+      </c>
+      <c r="B305" t="s">
+        <v>351</v>
+      </c>
+      <c r="C305" t="s">
+        <v>139</v>
+      </c>
+      <c r="D305"/>
+      <c r="E305" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>152</v>
+      </c>
+      <c r="B306" t="s">
+        <v>353</v>
+      </c>
+      <c r="C306" t="s">
+        <v>145</v>
+      </c>
+      <c r="D306"/>
+      <c r="E306" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>152</v>
+      </c>
+      <c r="B307" t="s">
+        <v>354</v>
+      </c>
+      <c r="C307" t="s">
+        <v>122</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>152</v>
+      </c>
+      <c r="B308" t="s">
+        <v>355</v>
+      </c>
+      <c r="C308" t="s">
+        <v>139</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>152</v>
+      </c>
+      <c r="B309" t="s">
+        <v>356</v>
+      </c>
+      <c r="C309" t="s">
+        <v>167</v>
+      </c>
+      <c r="D309"/>
+      <c r="E309" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>152</v>
+      </c>
+      <c r="B310" t="s">
+        <v>357</v>
+      </c>
+      <c r="C310" t="s">
+        <v>145</v>
+      </c>
+      <c r="D310"/>
+      <c r="E310" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>152</v>
+      </c>
+      <c r="B311" t="s">
+        <v>358</v>
+      </c>
+      <c r="C311" t="s">
+        <v>122</v>
+      </c>
+      <c r="D311"/>
+      <c r="E311" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>152</v>
+      </c>
+      <c r="B312" t="s">
+        <v>359</v>
+      </c>
+      <c r="C312" t="s">
+        <v>139</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>152</v>
+      </c>
+      <c r="B313" t="s">
+        <v>360</v>
+      </c>
+      <c r="C313" t="s">
+        <v>167</v>
+      </c>
+      <c r="D313"/>
+      <c r="E313" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>106</v>
+      </c>
+      <c r="B314" t="s">
+        <v>361</v>
+      </c>
+      <c r="C314" t="s">
+        <v>139</v>
+      </c>
+      <c r="D314" t="s">
+        <v>362</v>
+      </c>
+      <c r="E314" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>106</v>
+      </c>
+      <c r="B315" t="s">
+        <v>364</v>
+      </c>
+      <c r="C315" t="s">
+        <v>145</v>
+      </c>
+      <c r="D315" t="s">
+        <v>362</v>
+      </c>
+      <c r="E315" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>106</v>
+      </c>
+      <c r="B316" t="s">
+        <v>365</v>
+      </c>
+      <c r="C316" t="s">
+        <v>122</v>
+      </c>
+      <c r="D316" t="s">
+        <v>362</v>
+      </c>
+      <c r="E316" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>117</v>
+      </c>
+      <c r="B317" t="s">
+        <v>366</v>
+      </c>
+      <c r="C317" t="s">
+        <v>139</v>
+      </c>
+      <c r="D317" t="s">
+        <v>362</v>
+      </c>
+      <c r="E317" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>120</v>
+      </c>
+      <c r="B318" t="s">
+        <v>367</v>
+      </c>
+      <c r="C318" t="s">
+        <v>167</v>
+      </c>
+      <c r="D318" t="s">
+        <v>362</v>
+      </c>
+      <c r="E318" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>123</v>
+      </c>
+      <c r="B319" t="s">
+        <v>368</v>
+      </c>
+      <c r="C319" t="s">
+        <v>369</v>
+      </c>
+      <c r="D319" t="s">
+        <v>362</v>
+      </c>
+      <c r="E319" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>125</v>
+      </c>
+      <c r="B320" t="s">
+        <v>370</v>
+      </c>
+      <c r="C320" t="s">
+        <v>37</v>
+      </c>
+      <c r="D320" t="s">
+        <v>362</v>
+      </c>
+      <c r="E320" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>128</v>
+      </c>
+      <c r="B321" t="s">
+        <v>371</v>
+      </c>
+      <c r="C321" t="s">
+        <v>143</v>
+      </c>
+      <c r="D321" t="s">
+        <v>362</v>
+      </c>
+      <c r="E321" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>130</v>
+      </c>
+      <c r="B322" t="s">
+        <v>372</v>
+      </c>
+      <c r="C322" t="s">
+        <v>145</v>
+      </c>
+      <c r="D322" t="s">
+        <v>362</v>
+      </c>
+      <c r="E322" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>133</v>
+      </c>
+      <c r="B323" t="s">
+        <v>373</v>
+      </c>
+      <c r="C323" t="s">
+        <v>147</v>
+      </c>
+      <c r="D323" t="s">
+        <v>362</v>
+      </c>
+      <c r="E323" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>106</v>
+      </c>
+      <c r="B324" t="s">
+        <v>374</v>
+      </c>
+      <c r="C324" t="s">
+        <v>139</v>
+      </c>
+      <c r="D324" t="s">
+        <v>335</v>
+      </c>
+      <c r="E324" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>106</v>
+      </c>
+      <c r="B325" t="s">
+        <v>375</v>
+      </c>
+      <c r="C325" t="s">
+        <v>145</v>
+      </c>
+      <c r="D325" t="s">
+        <v>335</v>
+      </c>
+      <c r="E325" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>106</v>
+      </c>
+      <c r="B326" t="s">
+        <v>376</v>
+      </c>
+      <c r="C326" t="s">
+        <v>122</v>
+      </c>
+      <c r="D326" t="s">
+        <v>335</v>
+      </c>
+      <c r="E326" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>117</v>
+      </c>
+      <c r="B327" t="s">
+        <v>377</v>
+      </c>
+      <c r="C327" t="s">
+        <v>139</v>
+      </c>
+      <c r="D327" t="s">
+        <v>335</v>
+      </c>
+      <c r="E327" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>120</v>
+      </c>
+      <c r="B328" t="s">
+        <v>378</v>
+      </c>
+      <c r="C328" t="s">
+        <v>167</v>
+      </c>
+      <c r="D328" t="s">
+        <v>335</v>
+      </c>
+      <c r="E328" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>125</v>
+      </c>
+      <c r="B329" t="s">
+        <v>379</v>
+      </c>
+      <c r="C329" t="s">
+        <v>37</v>
+      </c>
+      <c r="D329" t="s">
+        <v>335</v>
+      </c>
+      <c r="E329" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>128</v>
+      </c>
+      <c r="B330" t="s">
+        <v>380</v>
+      </c>
+      <c r="C330" t="s">
+        <v>143</v>
+      </c>
+      <c r="D330" t="s">
+        <v>335</v>
+      </c>
+      <c r="E330" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>130</v>
+      </c>
+      <c r="B331" t="s">
+        <v>381</v>
+      </c>
+      <c r="C331" t="s">
+        <v>145</v>
+      </c>
+      <c r="D331" t="s">
+        <v>335</v>
+      </c>
+      <c r="E331" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>133</v>
+      </c>
+      <c r="B332" t="s">
+        <v>382</v>
+      </c>
+      <c r="C332" t="s">
+        <v>147</v>
+      </c>
+      <c r="D332" t="s">
+        <v>335</v>
+      </c>
+      <c r="E332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>106</v>
+      </c>
+      <c r="B333" t="s">
+        <v>383</v>
+      </c>
+      <c r="C333" t="s">
+        <v>122</v>
+      </c>
+      <c r="D333" t="s">
+        <v>335</v>
+      </c>
+      <c r="E333" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>106</v>
+      </c>
+      <c r="B334" t="s">
+        <v>384</v>
+      </c>
+      <c r="C334" t="s">
+        <v>139</v>
+      </c>
+      <c r="D334" t="s">
+        <v>362</v>
+      </c>
+      <c r="E334" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>106</v>
+      </c>
+      <c r="B335" t="s">
+        <v>385</v>
+      </c>
+      <c r="C335" t="s">
+        <v>145</v>
+      </c>
+      <c r="D335" t="s">
+        <v>362</v>
+      </c>
+      <c r="E335" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>106</v>
+      </c>
+      <c r="B336" t="s">
+        <v>386</v>
+      </c>
+      <c r="C336" t="s">
+        <v>122</v>
+      </c>
+      <c r="D336" t="s">
+        <v>362</v>
+      </c>
+      <c r="E336" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>117</v>
+      </c>
+      <c r="B337" t="s">
+        <v>387</v>
+      </c>
+      <c r="C337" t="s">
+        <v>139</v>
+      </c>
+      <c r="D337" t="s">
+        <v>362</v>
+      </c>
+      <c r="E337" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>120</v>
+      </c>
+      <c r="B338" t="s">
+        <v>388</v>
+      </c>
+      <c r="C338" t="s">
+        <v>167</v>
+      </c>
+      <c r="D338" t="s">
+        <v>362</v>
+      </c>
+      <c r="E338" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>125</v>
+      </c>
+      <c r="B339" t="s">
+        <v>389</v>
+      </c>
+      <c r="C339" t="s">
+        <v>37</v>
+      </c>
+      <c r="D339" t="s">
+        <v>362</v>
+      </c>
+      <c r="E339" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>130</v>
+      </c>
+      <c r="B340" t="s">
+        <v>390</v>
+      </c>
+      <c r="C340" t="s">
+        <v>145</v>
+      </c>
+      <c r="D340" t="s">
+        <v>362</v>
+      </c>
+      <c r="E340" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>133</v>
+      </c>
+      <c r="B341" t="s">
+        <v>391</v>
+      </c>
+      <c r="C341" t="s">
+        <v>147</v>
+      </c>
+      <c r="D341" t="s">
+        <v>362</v>
+      </c>
+      <c r="E341" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>106</v>
+      </c>
+      <c r="B342" t="s">
+        <v>392</v>
+      </c>
+      <c r="C342" t="s">
+        <v>122</v>
+      </c>
+      <c r="D342" t="s">
+        <v>362</v>
+      </c>
+      <c r="E342" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>106</v>
+      </c>
+      <c r="B343" t="s">
+        <v>393</v>
+      </c>
+      <c r="C343" t="s">
+        <v>139</v>
+      </c>
+      <c r="D343" t="s">
+        <v>362</v>
+      </c>
+      <c r="E343" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>106</v>
+      </c>
+      <c r="B344" t="s">
+        <v>394</v>
+      </c>
+      <c r="C344" t="s">
+        <v>145</v>
+      </c>
+      <c r="D344" t="s">
+        <v>362</v>
+      </c>
+      <c r="E344" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>106</v>
+      </c>
+      <c r="B345" t="s">
+        <v>395</v>
+      </c>
+      <c r="C345" t="s">
+        <v>122</v>
+      </c>
+      <c r="D345" t="s">
+        <v>362</v>
+      </c>
+      <c r="E345" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>117</v>
+      </c>
+      <c r="B346" t="s">
+        <v>396</v>
+      </c>
+      <c r="C346" t="s">
+        <v>139</v>
+      </c>
+      <c r="D346" t="s">
+        <v>362</v>
+      </c>
+      <c r="E346" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>120</v>
+      </c>
+      <c r="B347" t="s">
+        <v>397</v>
+      </c>
+      <c r="C347" t="s">
+        <v>167</v>
+      </c>
+      <c r="D347" t="s">
+        <v>362</v>
+      </c>
+      <c r="E347" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>125</v>
+      </c>
+      <c r="B348" t="s">
+        <v>398</v>
+      </c>
+      <c r="C348" t="s">
+        <v>37</v>
+      </c>
+      <c r="D348" t="s">
+        <v>362</v>
+      </c>
+      <c r="E348" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>128</v>
+      </c>
+      <c r="B349" t="s">
+        <v>399</v>
+      </c>
+      <c r="C349" t="s">
+        <v>143</v>
+      </c>
+      <c r="D349" t="s">
+        <v>362</v>
+      </c>
+      <c r="E349" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>130</v>
+      </c>
+      <c r="B350" t="s">
+        <v>400</v>
+      </c>
+      <c r="C350" t="s">
+        <v>145</v>
+      </c>
+      <c r="D350" t="s">
+        <v>362</v>
+      </c>
+      <c r="E350" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>133</v>
+      </c>
+      <c r="B351" t="s">
+        <v>401</v>
+      </c>
+      <c r="C351" t="s">
+        <v>147</v>
+      </c>
+      <c r="D351" t="s">
+        <v>362</v>
+      </c>
+      <c r="E351" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>106</v>
+      </c>
+      <c r="B352" t="s">
+        <v>402</v>
+      </c>
+      <c r="C352" t="s">
+        <v>122</v>
+      </c>
+      <c r="D352" t="s">
+        <v>362</v>
+      </c>
+      <c r="E352" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>106</v>
+      </c>
+      <c r="B353" t="s">
+        <v>403</v>
+      </c>
+      <c r="C353" t="s">
+        <v>139</v>
+      </c>
+      <c r="D353" t="s">
+        <v>362</v>
+      </c>
+      <c r="E353" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>106</v>
+      </c>
+      <c r="B354" t="s">
+        <v>404</v>
+      </c>
+      <c r="C354" t="s">
+        <v>145</v>
+      </c>
+      <c r="D354" t="s">
+        <v>362</v>
+      </c>
+      <c r="E354" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>106</v>
+      </c>
+      <c r="B355" t="s">
+        <v>405</v>
+      </c>
+      <c r="C355" t="s">
+        <v>122</v>
+      </c>
+      <c r="D355" t="s">
+        <v>362</v>
+      </c>
+      <c r="E355" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>117</v>
+      </c>
+      <c r="B356" t="s">
+        <v>406</v>
+      </c>
+      <c r="C356" t="s">
+        <v>139</v>
+      </c>
+      <c r="D356" t="s">
+        <v>362</v>
+      </c>
+      <c r="E356" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>120</v>
+      </c>
+      <c r="B357" t="s">
+        <v>407</v>
+      </c>
+      <c r="C357" t="s">
+        <v>167</v>
+      </c>
+      <c r="D357" t="s">
+        <v>362</v>
+      </c>
+      <c r="E357" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>125</v>
+      </c>
+      <c r="B358" t="s">
+        <v>408</v>
+      </c>
+      <c r="C358" t="s">
+        <v>37</v>
+      </c>
+      <c r="D358" t="s">
+        <v>362</v>
+      </c>
+      <c r="E358" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>130</v>
+      </c>
+      <c r="B359" t="s">
+        <v>409</v>
+      </c>
+      <c r="C359" t="s">
+        <v>145</v>
+      </c>
+      <c r="D359" t="s">
+        <v>362</v>
+      </c>
+      <c r="E359" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>106</v>
+      </c>
+      <c r="B360" t="s">
+        <v>410</v>
+      </c>
+      <c r="C360" t="s">
+        <v>122</v>
+      </c>
+      <c r="D360" t="s">
+        <v>362</v>
+      </c>
+      <c r="E360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>106</v>
+      </c>
+      <c r="B361" t="s">
+        <v>411</v>
+      </c>
+      <c r="C361" t="s">
+        <v>139</v>
+      </c>
+      <c r="D361" t="s">
+        <v>362</v>
+      </c>
+      <c r="E361" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>106</v>
+      </c>
+      <c r="B362" t="s">
+        <v>412</v>
+      </c>
+      <c r="C362" t="s">
+        <v>145</v>
+      </c>
+      <c r="D362" t="s">
+        <v>362</v>
+      </c>
+      <c r="E362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>106</v>
+      </c>
+      <c r="B363" t="s">
+        <v>413</v>
+      </c>
+      <c r="C363" t="s">
+        <v>122</v>
+      </c>
+      <c r="D363" t="s">
+        <v>362</v>
+      </c>
+      <c r="E363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>117</v>
+      </c>
+      <c r="B364" t="s">
+        <v>414</v>
+      </c>
+      <c r="C364" t="s">
+        <v>139</v>
+      </c>
+      <c r="D364" t="s">
+        <v>362</v>
+      </c>
+      <c r="E364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>120</v>
+      </c>
+      <c r="B365" t="s">
+        <v>415</v>
+      </c>
+      <c r="C365" t="s">
+        <v>167</v>
+      </c>
+      <c r="D365" t="s">
+        <v>362</v>
+      </c>
+      <c r="E365" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>125</v>
+      </c>
+      <c r="B366" t="s">
+        <v>416</v>
+      </c>
+      <c r="C366" t="s">
+        <v>37</v>
+      </c>
+      <c r="D366" t="s">
+        <v>362</v>
+      </c>
+      <c r="E366" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>128</v>
+      </c>
+      <c r="B367" t="s">
+        <v>417</v>
+      </c>
+      <c r="C367" t="s">
+        <v>143</v>
+      </c>
+      <c r="D367" t="s">
+        <v>362</v>
+      </c>
+      <c r="E367" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>130</v>
+      </c>
+      <c r="B368" t="s">
+        <v>418</v>
+      </c>
+      <c r="C368" t="s">
+        <v>145</v>
+      </c>
+      <c r="D368" t="s">
+        <v>362</v>
+      </c>
+      <c r="E368" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>106</v>
+      </c>
+      <c r="B369" t="s">
+        <v>419</v>
+      </c>
+      <c r="C369" t="s">
+        <v>122</v>
+      </c>
+      <c r="D369" t="s">
+        <v>362</v>
+      </c>
+      <c r="E369" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>106</v>
+      </c>
+      <c r="B370" t="s">
+        <v>420</v>
+      </c>
+      <c r="C370" t="s">
+        <v>139</v>
+      </c>
+      <c r="D370" t="s">
+        <v>362</v>
+      </c>
+      <c r="E370" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>106</v>
+      </c>
+      <c r="B371" t="s">
+        <v>421</v>
+      </c>
+      <c r="C371" t="s">
+        <v>145</v>
+      </c>
+      <c r="D371" t="s">
+        <v>362</v>
+      </c>
+      <c r="E371" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>106</v>
+      </c>
+      <c r="B372" t="s">
+        <v>422</v>
+      </c>
+      <c r="C372" t="s">
+        <v>122</v>
+      </c>
+      <c r="D372" t="s">
+        <v>362</v>
+      </c>
+      <c r="E372" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>117</v>
+      </c>
+      <c r="B373" t="s">
+        <v>423</v>
+      </c>
+      <c r="C373" t="s">
+        <v>139</v>
+      </c>
+      <c r="D373" t="s">
+        <v>362</v>
+      </c>
+      <c r="E373" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>120</v>
+      </c>
+      <c r="B374" t="s">
+        <v>424</v>
+      </c>
+      <c r="C374" t="s">
+        <v>167</v>
+      </c>
+      <c r="D374" t="s">
+        <v>362</v>
+      </c>
+      <c r="E374" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>125</v>
+      </c>
+      <c r="B375" t="s">
+        <v>425</v>
+      </c>
+      <c r="C375" t="s">
+        <v>37</v>
+      </c>
+      <c r="D375" t="s">
+        <v>362</v>
+      </c>
+      <c r="E375" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>128</v>
+      </c>
+      <c r="B376" t="s">
+        <v>426</v>
+      </c>
+      <c r="C376" t="s">
+        <v>143</v>
+      </c>
+      <c r="D376" t="s">
+        <v>362</v>
+      </c>
+      <c r="E376" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>130</v>
+      </c>
+      <c r="B377" t="s">
+        <v>427</v>
+      </c>
+      <c r="C377" t="s">
+        <v>145</v>
+      </c>
+      <c r="D377" t="s">
+        <v>362</v>
+      </c>
+      <c r="E377" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>133</v>
+      </c>
+      <c r="B378" t="s">
+        <v>428</v>
+      </c>
+      <c r="C378" t="s">
+        <v>147</v>
+      </c>
+      <c r="D378" t="s">
+        <v>362</v>
+      </c>
+      <c r="E378" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>106</v>
+      </c>
+      <c r="B379" t="s">
+        <v>429</v>
+      </c>
+      <c r="C379" t="s">
+        <v>122</v>
+      </c>
+      <c r="D379" t="s">
+        <v>362</v>
+      </c>
+      <c r="E379" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>106</v>
+      </c>
+      <c r="B380" t="s">
+        <v>430</v>
+      </c>
+      <c r="C380" t="s">
+        <v>139</v>
+      </c>
+      <c r="D380" t="s">
+        <v>362</v>
+      </c>
+      <c r="E380" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>106</v>
+      </c>
+      <c r="B381" t="s">
+        <v>431</v>
+      </c>
+      <c r="C381" t="s">
+        <v>145</v>
+      </c>
+      <c r="D381" t="s">
+        <v>362</v>
+      </c>
+      <c r="E381" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>106</v>
+      </c>
+      <c r="B382" t="s">
+        <v>432</v>
+      </c>
+      <c r="C382" t="s">
+        <v>122</v>
+      </c>
+      <c r="D382" t="s">
+        <v>362</v>
+      </c>
+      <c r="E382" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>117</v>
+      </c>
+      <c r="B383" t="s">
+        <v>433</v>
+      </c>
+      <c r="C383" t="s">
+        <v>139</v>
+      </c>
+      <c r="D383" t="s">
+        <v>362</v>
+      </c>
+      <c r="E383" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>120</v>
+      </c>
+      <c r="B384" t="s">
+        <v>434</v>
+      </c>
+      <c r="C384" t="s">
+        <v>167</v>
+      </c>
+      <c r="D384" t="s">
+        <v>362</v>
+      </c>
+      <c r="E384" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>125</v>
+      </c>
+      <c r="B385" t="s">
+        <v>435</v>
+      </c>
+      <c r="C385" t="s">
+        <v>37</v>
+      </c>
+      <c r="D385" t="s">
+        <v>362</v>
+      </c>
+      <c r="E385" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>128</v>
+      </c>
+      <c r="B386" t="s">
+        <v>436</v>
+      </c>
+      <c r="C386" t="s">
+        <v>143</v>
+      </c>
+      <c r="D386" t="s">
+        <v>362</v>
+      </c>
+      <c r="E386" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>130</v>
+      </c>
+      <c r="B387" t="s">
+        <v>437</v>
+      </c>
+      <c r="C387" t="s">
+        <v>145</v>
+      </c>
+      <c r="D387" t="s">
+        <v>362</v>
+      </c>
+      <c r="E387" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>35</v>
+      </c>
+      <c r="B388" t="s">
+        <v>438</v>
+      </c>
+      <c r="C388" t="s">
+        <v>37</v>
+      </c>
+      <c r="D388" t="s">
+        <v>439</v>
+      </c>
+      <c r="E388" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389" t="s">
+        <v>440</v>
+      </c>
+      <c r="C389" t="s">
+        <v>39</v>
+      </c>
+      <c r="D389" t="s">
+        <v>439</v>
+      </c>
+      <c r="E389" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>40</v>
+      </c>
+      <c r="B390" t="s">
+        <v>441</v>
+      </c>
+      <c r="C390" t="s">
+        <v>42</v>
+      </c>
+      <c r="D390" t="s">
+        <v>439</v>
+      </c>
+      <c r="E390" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391" t="s">
+        <v>442</v>
+      </c>
+      <c r="C391" t="s">
+        <v>42</v>
+      </c>
+      <c r="D391" t="s">
+        <v>439</v>
+      </c>
+      <c r="E391" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>443</v>
+      </c>
+      <c r="C392" t="s">
+        <v>143</v>
+      </c>
+      <c r="D392" t="s">
+        <v>439</v>
+      </c>
+      <c r="E392" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>13</v>
+      </c>
+      <c r="B393" t="s">
+        <v>444</v>
+      </c>
+      <c r="C393" t="s">
+        <v>47</v>
+      </c>
+      <c r="D393" t="s">
+        <v>439</v>
+      </c>
+      <c r="E393" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394" t="s">
+        <v>445</v>
+      </c>
+      <c r="C394" t="s">
+        <v>51</v>
+      </c>
+      <c r="D394" t="s">
+        <v>439</v>
+      </c>
+      <c r="E394" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395" t="s">
+        <v>446</v>
+      </c>
+      <c r="C395" t="s">
+        <v>53</v>
+      </c>
+      <c r="D395" t="s">
+        <v>439</v>
+      </c>
+      <c r="E395" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396" t="s">
+        <v>447</v>
+      </c>
+      <c r="C396" t="s">
+        <v>5</v>
+      </c>
+      <c r="D396" t="s">
+        <v>439</v>
+      </c>
+      <c r="E396" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" t="s">
+        <v>448</v>
+      </c>
+      <c r="C397" t="s">
+        <v>37</v>
+      </c>
+      <c r="D397" t="s">
+        <v>449</v>
+      </c>
+      <c r="E397" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" t="s">
+        <v>451</v>
+      </c>
+      <c r="C398" t="s">
+        <v>37</v>
+      </c>
+      <c r="D398" t="s">
+        <v>449</v>
+      </c>
+      <c r="E398" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>7</v>
+      </c>
+      <c r="B399" t="s">
+        <v>452</v>
+      </c>
+      <c r="C399" t="s">
+        <v>39</v>
+      </c>
+      <c r="D399" t="s">
+        <v>449</v>
+      </c>
+      <c r="E399" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>40</v>
+      </c>
+      <c r="B400" t="s">
+        <v>453</v>
+      </c>
+      <c r="C400" t="s">
+        <v>42</v>
+      </c>
+      <c r="D400" t="s">
+        <v>449</v>
+      </c>
+      <c r="E400" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>35</v>
+      </c>
+      <c r="B401" t="s">
+        <v>454</v>
+      </c>
+      <c r="C401" t="s">
+        <v>37</v>
+      </c>
+      <c r="D401" t="s">
+        <v>449</v>
+      </c>
+      <c r="E401" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s">
+        <v>455</v>
+      </c>
+      <c r="C402" t="s">
+        <v>39</v>
+      </c>
+      <c r="D402" t="s">
+        <v>449</v>
+      </c>
+      <c r="E402" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>40</v>
+      </c>
+      <c r="B403" t="s">
+        <v>456</v>
+      </c>
+      <c r="C403" t="s">
+        <v>42</v>
+      </c>
+      <c r="D403" t="s">
+        <v>449</v>
+      </c>
+      <c r="E403" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>35</v>
+      </c>
+      <c r="B404" t="s">
+        <v>457</v>
+      </c>
+      <c r="C404" t="s">
+        <v>37</v>
+      </c>
+      <c r="D404" t="s">
+        <v>439</v>
+      </c>
+      <c r="E404" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>40</v>
+      </c>
+      <c r="B405" t="s">
+        <v>459</v>
+      </c>
+      <c r="C405" t="s">
+        <v>42</v>
+      </c>
+      <c r="D405" t="s">
+        <v>439</v>
+      </c>
+      <c r="E405" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406" t="s">
+        <v>460</v>
+      </c>
+      <c r="C406" t="s">
+        <v>42</v>
+      </c>
+      <c r="D406" t="s">
+        <v>439</v>
+      </c>
+      <c r="E406" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>7</v>
+      </c>
+      <c r="B407" t="s">
+        <v>461</v>
+      </c>
+      <c r="C407" t="s">
+        <v>143</v>
+      </c>
+      <c r="D407" t="s">
+        <v>439</v>
+      </c>
+      <c r="E407" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408" t="s">
+        <v>462</v>
+      </c>
+      <c r="C408" t="s">
+        <v>47</v>
+      </c>
+      <c r="D408" t="s">
+        <v>439</v>
+      </c>
+      <c r="E408" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>13</v>
+      </c>
+      <c r="B409" t="s">
+        <v>463</v>
+      </c>
+      <c r="C409" t="s">
+        <v>53</v>
+      </c>
+      <c r="D409" t="s">
+        <v>439</v>
+      </c>
+      <c r="E409" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>13</v>
+      </c>
+      <c r="B410" t="s">
+        <v>464</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" t="s">
+        <v>439</v>
+      </c>
+      <c r="E410" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" t="s">
+        <v>465</v>
+      </c>
+      <c r="C411" t="s">
+        <v>37</v>
+      </c>
+      <c r="D411" t="s">
+        <v>439</v>
+      </c>
+      <c r="E411" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>40</v>
+      </c>
+      <c r="B412" t="s">
+        <v>466</v>
+      </c>
+      <c r="C412" t="s">
+        <v>42</v>
+      </c>
+      <c r="D412" t="s">
+        <v>439</v>
+      </c>
+      <c r="E412" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413" t="s">
+        <v>467</v>
+      </c>
+      <c r="C413" t="s">
+        <v>42</v>
+      </c>
+      <c r="D413" t="s">
+        <v>439</v>
+      </c>
+      <c r="E413" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414" t="s">
+        <v>468</v>
+      </c>
+      <c r="C414" t="s">
+        <v>143</v>
+      </c>
+      <c r="D414" t="s">
+        <v>439</v>
+      </c>
+      <c r="E414" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>13</v>
+      </c>
+      <c r="B415" t="s">
+        <v>469</v>
+      </c>
+      <c r="C415" t="s">
+        <v>47</v>
+      </c>
+      <c r="D415" t="s">
+        <v>439</v>
+      </c>
+      <c r="E415" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416" t="s">
+        <v>470</v>
+      </c>
+      <c r="C416" t="s">
+        <v>53</v>
+      </c>
+      <c r="D416" t="s">
+        <v>439</v>
+      </c>
+      <c r="E416" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417" t="s">
+        <v>471</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417" t="s">
+        <v>439</v>
+      </c>
+      <c r="E417" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" t="s">
+        <v>472</v>
+      </c>
+      <c r="C418" t="s">
+        <v>37</v>
+      </c>
+      <c r="D418" t="s">
+        <v>473</v>
+      </c>
+      <c r="E418" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>40</v>
+      </c>
+      <c r="B419" t="s">
+        <v>475</v>
+      </c>
+      <c r="C419" t="s">
+        <v>42</v>
+      </c>
+      <c r="D419" t="s">
+        <v>473</v>
+      </c>
+      <c r="E419" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>3</v>
+      </c>
+      <c r="B420" t="s">
+        <v>476</v>
+      </c>
+      <c r="C420" t="s">
+        <v>42</v>
+      </c>
+      <c r="D420" t="s">
+        <v>473</v>
+      </c>
+      <c r="E420" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>7</v>
+      </c>
+      <c r="B421" t="s">
+        <v>477</v>
+      </c>
+      <c r="C421" t="s">
+        <v>143</v>
+      </c>
+      <c r="D421" t="s">
+        <v>473</v>
+      </c>
+      <c r="E421" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422" t="s">
+        <v>478</v>
+      </c>
+      <c r="C422" t="s">
+        <v>47</v>
+      </c>
+      <c r="D422" t="s">
+        <v>473</v>
+      </c>
+      <c r="E422" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>13</v>
+      </c>
+      <c r="B423" t="s">
+        <v>479</v>
+      </c>
+      <c r="C423" t="s">
+        <v>53</v>
+      </c>
+      <c r="D423" t="s">
+        <v>473</v>
+      </c>
+      <c r="E423" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>35</v>
+      </c>
+      <c r="B424" t="s">
+        <v>480</v>
+      </c>
+      <c r="C424" t="s">
+        <v>37</v>
+      </c>
+      <c r="D424" t="s">
+        <v>481</v>
+      </c>
+      <c r="E424" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>40</v>
+      </c>
+      <c r="B425" t="s">
+        <v>483</v>
+      </c>
+      <c r="C425" t="s">
+        <v>42</v>
+      </c>
+      <c r="D425" t="s">
+        <v>481</v>
+      </c>
+      <c r="E425" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>3</v>
+      </c>
+      <c r="B426" t="s">
+        <v>484</v>
+      </c>
+      <c r="C426" t="s">
+        <v>42</v>
+      </c>
+      <c r="D426" t="s">
+        <v>481</v>
+      </c>
+      <c r="E426" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" t="s">
+        <v>485</v>
+      </c>
+      <c r="C427" t="s">
+        <v>143</v>
+      </c>
+      <c r="D427" t="s">
+        <v>481</v>
+      </c>
+      <c r="E427" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428" t="s">
+        <v>486</v>
+      </c>
+      <c r="C428" t="s">
+        <v>47</v>
+      </c>
+      <c r="D428" t="s">
+        <v>481</v>
+      </c>
+      <c r="E428" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>13</v>
+      </c>
+      <c r="B429" t="s">
+        <v>487</v>
+      </c>
+      <c r="C429" t="s">
+        <v>53</v>
+      </c>
+      <c r="D429" t="s">
+        <v>481</v>
+      </c>
+      <c r="E429" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>13</v>
+      </c>
+      <c r="B430" t="s">
+        <v>488</v>
+      </c>
+      <c r="C430" t="s">
+        <v>5</v>
+      </c>
+      <c r="D430" t="s">
+        <v>481</v>
+      </c>
+      <c r="E430" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" t="s">
+        <v>489</v>
+      </c>
+      <c r="C431" t="s">
+        <v>51</v>
+      </c>
+      <c r="D431" t="s">
+        <v>481</v>
+      </c>
+      <c r="E431" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>35</v>
+      </c>
+      <c r="B432" t="s">
+        <v>490</v>
+      </c>
+      <c r="C432" t="s">
+        <v>37</v>
+      </c>
+      <c r="D432" t="s">
+        <v>439</v>
+      </c>
+      <c r="E432" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>40</v>
+      </c>
+      <c r="B433" t="s">
+        <v>491</v>
+      </c>
+      <c r="C433" t="s">
+        <v>42</v>
+      </c>
+      <c r="D433" t="s">
+        <v>439</v>
+      </c>
+      <c r="E433" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>3</v>
+      </c>
+      <c r="B434" t="s">
+        <v>492</v>
+      </c>
+      <c r="C434" t="s">
+        <v>42</v>
+      </c>
+      <c r="D434" t="s">
+        <v>439</v>
+      </c>
+      <c r="E434" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435" t="s">
+        <v>493</v>
+      </c>
+      <c r="C435" t="s">
+        <v>143</v>
+      </c>
+      <c r="D435" t="s">
+        <v>439</v>
+      </c>
+      <c r="E435" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>3</v>
+      </c>
+      <c r="B436" t="s">
+        <v>494</v>
+      </c>
+      <c r="C436" t="s">
+        <v>51</v>
+      </c>
+      <c r="D436" t="s">
+        <v>439</v>
+      </c>
+      <c r="E436" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" t="s">
+        <v>495</v>
+      </c>
+      <c r="C437" t="s">
+        <v>42</v>
+      </c>
+      <c r="D437" t="s">
+        <v>439</v>
+      </c>
+      <c r="E437" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" t="s">
+        <v>496</v>
+      </c>
+      <c r="C438" t="s">
+        <v>143</v>
+      </c>
+      <c r="D438" t="s">
+        <v>439</v>
+      </c>
+      <c r="E438" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>13</v>
+      </c>
+      <c r="B439" t="s">
+        <v>497</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s">
+        <v>439</v>
+      </c>
+      <c r="E439" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>35</v>
+      </c>
+      <c r="B440" t="s">
+        <v>498</v>
+      </c>
+      <c r="C440" t="s">
+        <v>37</v>
+      </c>
+      <c r="D440" t="s">
+        <v>439</v>
+      </c>
+      <c r="E440" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>3</v>
+      </c>
+      <c r="B441" t="s">
+        <v>499</v>
+      </c>
+      <c r="C441" t="s">
+        <v>42</v>
+      </c>
+      <c r="D441" t="s">
+        <v>439</v>
+      </c>
+      <c r="E441" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>7</v>
+      </c>
+      <c r="B442" t="s">
+        <v>500</v>
+      </c>
+      <c r="C442" t="s">
+        <v>143</v>
+      </c>
+      <c r="D442" t="s">
+        <v>439</v>
+      </c>
+      <c r="E442" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>13</v>
+      </c>
+      <c r="B443" t="s">
+        <v>501</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443" t="s">
+        <v>439</v>
+      </c>
+      <c r="E443" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>3</v>
+      </c>
+      <c r="B444" t="s">
+        <v>502</v>
+      </c>
+      <c r="C444" t="s">
+        <v>42</v>
+      </c>
+      <c r="D444" t="s">
+        <v>439</v>
+      </c>
+      <c r="E444" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445" t="s">
+        <v>503</v>
+      </c>
+      <c r="C445" t="s">
+        <v>143</v>
+      </c>
+      <c r="D445" t="s">
+        <v>439</v>
+      </c>
+      <c r="E445" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>13</v>
+      </c>
+      <c r="B446" t="s">
+        <v>504</v>
+      </c>
+      <c r="C446" t="s">
+        <v>5</v>
+      </c>
+      <c r="D446" t="s">
+        <v>439</v>
+      </c>
+      <c r="E446" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>3</v>
+      </c>
+      <c r="B447" t="s">
+        <v>505</v>
+      </c>
+      <c r="C447" t="s">
+        <v>51</v>
+      </c>
+      <c r="D447" t="s">
+        <v>439</v>
+      </c>
+      <c r="E447" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" t="s">
+        <v>506</v>
+      </c>
+      <c r="C448" t="s">
+        <v>37</v>
+      </c>
+      <c r="D448" t="s">
+        <v>439</v>
+      </c>
+      <c r="E448" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>40</v>
+      </c>
+      <c r="B449" t="s">
+        <v>507</v>
+      </c>
+      <c r="C449" t="s">
+        <v>42</v>
+      </c>
+      <c r="D449" t="s">
+        <v>439</v>
+      </c>
+      <c r="E449" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>3</v>
+      </c>
+      <c r="B450" t="s">
+        <v>508</v>
+      </c>
+      <c r="C450" t="s">
+        <v>42</v>
+      </c>
+      <c r="D450" t="s">
+        <v>439</v>
+      </c>
+      <c r="E450" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>13</v>
+      </c>
+      <c r="B451" t="s">
+        <v>509</v>
+      </c>
+      <c r="C451" t="s">
+        <v>5</v>
+      </c>
+      <c r="D451" t="s">
+        <v>439</v>
+      </c>
+      <c r="E451" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>40</v>
+      </c>
+      <c r="B452" t="s">
+        <v>510</v>
+      </c>
+      <c r="C452" t="s">
+        <v>42</v>
+      </c>
+      <c r="D452" t="s">
+        <v>439</v>
+      </c>
+      <c r="E452" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>3</v>
+      </c>
+      <c r="B453" t="s">
+        <v>511</v>
+      </c>
+      <c r="C453" t="s">
+        <v>42</v>
+      </c>
+      <c r="D453" t="s">
+        <v>439</v>
+      </c>
+      <c r="E453" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" t="s">
+        <v>512</v>
+      </c>
+      <c r="C454" t="s">
+        <v>143</v>
+      </c>
+      <c r="D454" t="s">
+        <v>439</v>
+      </c>
+      <c r="E454" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>13</v>
+      </c>
+      <c r="B455" t="s">
+        <v>513</v>
+      </c>
+      <c r="C455" t="s">
+        <v>5</v>
+      </c>
+      <c r="D455" t="s">
+        <v>439</v>
+      </c>
+      <c r="E455" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>3</v>
+      </c>
+      <c r="B456" t="s">
+        <v>514</v>
+      </c>
+      <c r="C456" t="s">
+        <v>51</v>
+      </c>
+      <c r="D456" t="s">
+        <v>439</v>
+      </c>
+      <c r="E456" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>35</v>
+      </c>
+      <c r="B457" t="s">
+        <v>515</v>
+      </c>
+      <c r="C457" t="s">
+        <v>37</v>
+      </c>
+      <c r="D457" t="s">
+        <v>439</v>
+      </c>
+      <c r="E457" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>40</v>
+      </c>
+      <c r="B458" t="s">
+        <v>516</v>
+      </c>
+      <c r="C458" t="s">
+        <v>42</v>
+      </c>
+      <c r="D458" t="s">
+        <v>439</v>
+      </c>
+      <c r="E458" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>3</v>
+      </c>
+      <c r="B459" t="s">
+        <v>517</v>
+      </c>
+      <c r="C459" t="s">
+        <v>42</v>
+      </c>
+      <c r="D459" t="s">
+        <v>439</v>
+      </c>
+      <c r="E459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460" t="s">
+        <v>518</v>
+      </c>
+      <c r="C460" t="s">
+        <v>143</v>
+      </c>
+      <c r="D460" t="s">
+        <v>439</v>
+      </c>
+      <c r="E460" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>13</v>
+      </c>
+      <c r="B461" t="s">
+        <v>519</v>
+      </c>
+      <c r="C461" t="s">
+        <v>5</v>
+      </c>
+      <c r="D461" t="s">
+        <v>439</v>
+      </c>
+      <c r="E461" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>40</v>
+      </c>
+      <c r="B462" t="s">
+        <v>520</v>
+      </c>
+      <c r="C462" t="s">
+        <v>42</v>
+      </c>
+      <c r="D462" t="s">
+        <v>439</v>
+      </c>
+      <c r="E462" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>3</v>
+      </c>
+      <c r="B463" t="s">
+        <v>521</v>
+      </c>
+      <c r="C463" t="s">
+        <v>42</v>
+      </c>
+      <c r="D463" t="s">
+        <v>439</v>
+      </c>
+      <c r="E463" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" t="s">
+        <v>522</v>
+      </c>
+      <c r="C464" t="s">
+        <v>143</v>
+      </c>
+      <c r="D464" t="s">
+        <v>439</v>
+      </c>
+      <c r="E464" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>13</v>
+      </c>
+      <c r="B465" t="s">
+        <v>523</v>
+      </c>
+      <c r="C465" t="s">
+        <v>5</v>
+      </c>
+      <c r="D465" t="s">
+        <v>439</v>
+      </c>
+      <c r="E465" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>3</v>
+      </c>
+      <c r="B466" t="s">
+        <v>524</v>
+      </c>
+      <c r="C466" t="s">
+        <v>51</v>
+      </c>
+      <c r="D466" t="s">
+        <v>439</v>
+      </c>
+      <c r="E466" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>35</v>
+      </c>
+      <c r="B467" t="s">
+        <v>525</v>
+      </c>
+      <c r="C467" t="s">
+        <v>37</v>
+      </c>
+      <c r="D467" t="s">
+        <v>439</v>
+      </c>
+      <c r="E467" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>40</v>
+      </c>
+      <c r="B468" t="s">
+        <v>526</v>
+      </c>
+      <c r="C468" t="s">
+        <v>42</v>
+      </c>
+      <c r="D468" t="s">
+        <v>439</v>
+      </c>
+      <c r="E468" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>3</v>
+      </c>
+      <c r="B469" t="s">
+        <v>527</v>
+      </c>
+      <c r="C469" t="s">
+        <v>42</v>
+      </c>
+      <c r="D469" t="s">
+        <v>439</v>
+      </c>
+      <c r="E469" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" t="s">
+        <v>528</v>
+      </c>
+      <c r="C470" t="s">
+        <v>143</v>
+      </c>
+      <c r="D470" t="s">
+        <v>439</v>
+      </c>
+      <c r="E470" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471" t="s">
+        <v>529</v>
+      </c>
+      <c r="C471" t="s">
+        <v>5</v>
+      </c>
+      <c r="D471" t="s">
+        <v>439</v>
+      </c>
+      <c r="E471" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
